--- a/raw_data/labels.xlsx
+++ b/raw_data/labels.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/XSTSF/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/PhD/XSTSF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367785A1-6C03-9547-A794-A8F683575AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E35AC-705B-464D-8160-61D10B692D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{402CC6B9-E9FC-114F-AF89-C5AECE65EB21}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="264">
   <si>
     <t>S1</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACD9F1-6401-1140-9477-2C34FD39F1CF}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1393,9 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
@@ -1458,7 +1463,9 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C5" s="8">
         <v>4</v>
       </c>
@@ -1526,7 +1533,9 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C7" s="8">
         <v>6</v>
       </c>
@@ -1594,7 +1603,9 @@
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C9" s="8">
         <v>8</v>
       </c>
@@ -1662,7 +1673,9 @@
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C11" s="8">
         <v>10</v>
       </c>
@@ -1730,7 +1743,9 @@
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C13" s="8">
         <v>12</v>
       </c>
@@ -1798,7 +1813,9 @@
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C15" s="8">
         <v>14</v>
       </c>
@@ -1866,7 +1883,9 @@
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C17" s="8">
         <v>16</v>
       </c>
@@ -1934,7 +1953,9 @@
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C19" s="8">
         <v>18</v>
       </c>
@@ -2002,7 +2023,9 @@
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C21" s="8">
         <v>20</v>
       </c>
@@ -2070,7 +2093,9 @@
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="C23" s="8">
         <v>22</v>
       </c>
@@ -2103,7 +2128,9 @@
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C24" s="8">
         <v>23</v>
       </c>
@@ -2171,7 +2198,9 @@
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C26" s="8">
         <v>25</v>
       </c>
@@ -2204,7 +2233,9 @@
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C27" s="8">
         <v>26</v>
       </c>
@@ -2272,7 +2303,9 @@
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C29" s="8">
         <v>28</v>
       </c>
@@ -2305,7 +2338,9 @@
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C30" s="8">
         <v>29</v>
       </c>
@@ -2338,7 +2373,9 @@
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C31" s="8">
         <v>30</v>
       </c>
@@ -2406,7 +2443,9 @@
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C33" s="8">
         <v>32</v>
       </c>
@@ -2474,7 +2513,9 @@
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C35" s="8">
         <v>34</v>
       </c>
@@ -2542,7 +2583,9 @@
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C37" s="8">
         <v>36</v>
       </c>
@@ -2610,7 +2653,9 @@
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C39" s="8">
         <v>38</v>
       </c>
@@ -2678,7 +2723,9 @@
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C41" s="8">
         <v>40</v>
       </c>
@@ -2711,7 +2758,9 @@
       <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>262</v>
+      </c>
       <c r="C42" s="8">
         <v>41</v>
       </c>
@@ -2779,7 +2828,9 @@
       <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C44" s="8">
         <v>43</v>
       </c>
@@ -2847,7 +2898,9 @@
       <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C46" s="8">
         <v>45</v>
       </c>
@@ -2915,7 +2968,9 @@
       <c r="A48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="C48" s="8">
         <v>47</v>
       </c>
@@ -2983,7 +3038,9 @@
       <c r="A50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C50" s="8">
         <v>49</v>
       </c>
@@ -3051,7 +3108,9 @@
       <c r="A52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="C52" s="8">
         <v>51</v>
       </c>

--- a/raw_data/labels.xlsx
+++ b/raw_data/labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/PhD/XSTSF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E35AC-705B-464D-8160-61D10B692D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DEC806-39A4-6A4E-9827-45AF4DF43B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{402CC6B9-E9FC-114F-AF89-C5AECE65EB21}"/>
   </bookViews>
@@ -825,9 +825,6 @@
     <t>focus_condition</t>
   </si>
   <si>
-    <t>tone_MC</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>hist_tone</t>
   </si>
 </sst>
 </file>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACD9F1-6401-1140-9477-2C34FD39F1CF}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,7 +1324,7 @@
         <v>239</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>253</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="8">
         <v>4</v>
@@ -1499,7 +1499,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="8">
         <v>5</v>
@@ -1534,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -1569,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
@@ -1604,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="8">
         <v>8</v>
@@ -1639,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="8">
         <v>9</v>
@@ -1674,7 +1674,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
@@ -1709,7 +1709,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="8">
         <v>11</v>
@@ -1744,7 +1744,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="8">
         <v>12</v>
@@ -1779,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C14" s="8">
         <v>13</v>
@@ -1814,7 +1814,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="8">
         <v>14</v>
@@ -1849,7 +1849,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C16" s="8">
         <v>15</v>
@@ -1884,7 +1884,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C17" s="8">
         <v>16</v>
@@ -1919,7 +1919,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="8">
         <v>17</v>
@@ -1954,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C19" s="8">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="8">
         <v>19</v>
@@ -2024,7 +2024,7 @@
         <v>31</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21" s="8">
         <v>20</v>
@@ -2059,7 +2059,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="8">
         <v>21</v>
@@ -2094,7 +2094,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" s="8">
         <v>22</v>
@@ -2129,7 +2129,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" s="8">
         <v>23</v>
@@ -2164,7 +2164,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="8">
         <v>24</v>
@@ -2199,7 +2199,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="8">
         <v>25</v>
@@ -2234,7 +2234,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="8">
         <v>26</v>
@@ -2269,7 +2269,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="8">
         <v>27</v>
@@ -2304,7 +2304,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="8">
         <v>28</v>
@@ -2339,7 +2339,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C30" s="8">
         <v>29</v>
@@ -2374,7 +2374,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="8">
         <v>30</v>
@@ -2409,7 +2409,7 @@
         <v>42</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="8">
         <v>31</v>
@@ -2444,7 +2444,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="8">
         <v>32</v>
@@ -2479,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="8">
         <v>33</v>
@@ -2514,7 +2514,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="8">
         <v>34</v>
@@ -2549,7 +2549,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="8">
         <v>35</v>
@@ -2584,7 +2584,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="8">
         <v>36</v>
@@ -2619,7 +2619,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="8">
         <v>37</v>
@@ -2654,7 +2654,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C39" s="8">
         <v>38</v>
@@ -2689,7 +2689,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C40" s="8">
         <v>39</v>
@@ -2724,7 +2724,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="8">
         <v>40</v>
@@ -2759,7 +2759,7 @@
         <v>52</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" s="8">
         <v>41</v>
@@ -2794,7 +2794,7 @@
         <v>53</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C43" s="8">
         <v>42</v>
@@ -2829,7 +2829,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" s="8">
         <v>43</v>
@@ -2864,7 +2864,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C45" s="8">
         <v>44</v>
@@ -2899,7 +2899,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C46" s="8">
         <v>45</v>
@@ -2934,7 +2934,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C47" s="8">
         <v>46</v>
@@ -2969,7 +2969,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C48" s="8">
         <v>47</v>
@@ -3004,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="8">
         <v>48</v>
@@ -3039,7 +3039,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C50" s="8">
         <v>49</v>
@@ -3074,7 +3074,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" s="8">
         <v>50</v>
@@ -3109,7 +3109,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C52" s="8">
         <v>51</v>
@@ -3144,7 +3144,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" s="8">
         <v>52</v>
@@ -3179,7 +3179,7 @@
         <v>65</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C54" s="8">
         <v>55</v>
@@ -3214,7 +3214,7 @@
         <v>66</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C55" s="8">
         <v>57</v>
@@ -10438,7 +10438,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11404,10 +11404,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11480,7 +11481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>170</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>170</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>170</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>171</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>171</v>
       </c>
@@ -11565,7 +11566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>171</v>
       </c>
@@ -11582,7 +11583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>172</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>172</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>172</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -11650,7 +11651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>173</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>173</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>174</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>174</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>174</v>
       </c>
@@ -11735,7 +11736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>175</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>175</v>
       </c>
@@ -11769,7 +11770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>175</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>176</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>176</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>176</v>
       </c>
@@ -11837,7 +11838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>177</v>
       </c>
@@ -11854,7 +11855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>177</v>
       </c>
@@ -11871,7 +11872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>177</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>178</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>178</v>
       </c>
@@ -11922,7 +11923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>178</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>180</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>180</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>180</v>
       </c>
@@ -11990,7 +11991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>181</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>181</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>181</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>182</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>182</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>182</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>183</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -12126,7 +12127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>183</v>
       </c>
@@ -12143,7 +12144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>184</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>184</v>
       </c>
@@ -12177,7 +12178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>184</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>185</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>185</v>
       </c>
@@ -12228,7 +12229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>185</v>
       </c>
@@ -12245,7 +12246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>186</v>
       </c>
@@ -12262,7 +12263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>186</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>186</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>187</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>187</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -12347,7 +12348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>188</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>188</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>188</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>189</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>189</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>189</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>190</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>190</v>
       </c>
@@ -12483,7 +12484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>190</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>191</v>
       </c>
@@ -12517,7 +12518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>191</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>191</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>192</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>192</v>
       </c>
@@ -12585,7 +12586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>192</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>193</v>
       </c>
@@ -12619,7 +12620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>193</v>
       </c>
@@ -12636,7 +12637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>193</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>194</v>
       </c>
@@ -12670,7 +12671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>194</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>195</v>
       </c>
@@ -12721,7 +12722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>195</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>195</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>196</v>
       </c>
@@ -12772,7 +12773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>196</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>196</v>
       </c>
@@ -12806,7 +12807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>197</v>
       </c>
@@ -12823,7 +12824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>197</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>197</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>198</v>
       </c>
@@ -12891,7 +12892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>198</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>199</v>
       </c>
@@ -12925,7 +12926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>199</v>
       </c>
@@ -12942,7 +12943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>199</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>200</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>200</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>200</v>
       </c>
@@ -13010,7 +13011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>201</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>201</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>201</v>
       </c>
@@ -13061,7 +13062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>202</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>202</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>202</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>203</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>203</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>203</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>204</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>204</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>204</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>205</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>205</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>205</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>206</v>
       </c>
@@ -13282,7 +13283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>206</v>
       </c>
@@ -13299,7 +13300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>206</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>207</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>207</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>207</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>208</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>208</v>
       </c>
@@ -13401,7 +13402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>208</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>209</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>209</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>209</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>210</v>
       </c>
@@ -13486,7 +13487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>210</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>210</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>211</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>211</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>211</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>212</v>
       </c>
@@ -13588,7 +13589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>212</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>212</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
@@ -13639,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>213</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>213</v>
       </c>
@@ -13674,7 +13675,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}"/>
+  <autoFilter ref="A1:E133" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="小黄瓜"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/raw_data/labels.xlsx
+++ b/raw_data/labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyibing/Desktop/PhD/XSTSF/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DEC806-39A4-6A4E-9827-45AF4DF43B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B4CEF8-F255-A74E-A337-9BA43C505D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{402CC6B9-E9FC-114F-AF89-C5AECE65EB21}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{402CC6B9-E9FC-114F-AF89-C5AECE65EB21}"/>
   </bookViews>
   <sheets>
     <sheet name="mono" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ACD9F1-6401-1140-9477-2C34FD39F1CF}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11404,11 +11404,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11481,7 +11480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>170</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>170</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>170</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>171</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>171</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>171</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>172</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>172</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>172</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>173</v>
       </c>
@@ -11651,7 +11650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>173</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>173</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>174</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>174</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>174</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>175</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>175</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>175</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>176</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>176</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>176</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>177</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>177</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>177</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>178</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>178</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>178</v>
       </c>
@@ -11940,7 +11939,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>180</v>
       </c>
@@ -11957,7 +11956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>180</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>180</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>181</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>181</v>
       </c>
@@ -12025,7 +12024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>181</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>182</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>182</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>182</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>183</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>183</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>183</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>184</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>184</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>184</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>185</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>185</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>185</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>186</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>186</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>186</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>187</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>187</v>
       </c>
@@ -12331,7 +12330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>187</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>188</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>188</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>188</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>189</v>
       </c>
@@ -12416,7 +12415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>189</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>189</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>190</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>190</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>190</v>
       </c>
@@ -12501,7 +12500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>191</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>191</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>191</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>192</v>
       </c>
@@ -12569,7 +12568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>192</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>192</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>193</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>193</v>
       </c>
@@ -12637,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>193</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>194</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>194</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>194</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>195</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>195</v>
       </c>
@@ -12739,7 +12738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>195</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>196</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>196</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>196</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>197</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>197</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>197</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>198</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>198</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>198</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>199</v>
       </c>
@@ -12926,7 +12925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>199</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>199</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>200</v>
       </c>
@@ -12977,7 +12976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>200</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>200</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>201</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>201</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>201</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>202</v>
       </c>
@@ -13079,7 +13078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>202</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>202</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>203</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>203</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>203</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>204</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>204</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>204</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>205</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>205</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>205</v>
       </c>
@@ -13266,7 +13265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>206</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>206</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>206</v>
       </c>
@@ -13317,7 +13316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>207</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>207</v>
       </c>
@@ -13351,7 +13350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>207</v>
       </c>
@@ -13368,7 +13367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>208</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>208</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>208</v>
       </c>
@@ -13419,7 +13418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>209</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>209</v>
       </c>
@@ -13453,7 +13452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>209</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>210</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>210</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>210</v>
       </c>
@@ -13521,7 +13520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>211</v>
       </c>
@@ -13538,7 +13537,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>211</v>
       </c>
@@ -13555,7 +13554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>211</v>
       </c>
@@ -13572,7 +13571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>212</v>
       </c>
@@ -13589,7 +13588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>212</v>
       </c>
@@ -13606,7 +13605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>212</v>
       </c>
@@ -13623,7 +13622,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>213</v>
       </c>
@@ -13640,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>213</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>213</v>
       </c>
@@ -13675,13 +13674,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133" xr:uid="{F6E4C5B3-0A03-AB44-BED1-5363B225AF35}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="小黄瓜"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
